--- a/file_format.xlsx
+++ b/file_format.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>price</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>12:12AM</t>
+  </si>
+  <si>
+    <t>quantity</t>
   </si>
 </sst>
 </file>
@@ -94,9 +97,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G3" totalsRowShown="0">
-  <autoFilter ref="A1:G3"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:H3" totalsRowShown="0">
+  <autoFilter ref="A1:H3">
+    <filterColumn colId="7"/>
+  </autoFilter>
+  <tableColumns count="8">
     <tableColumn id="1" name="med_name"/>
     <tableColumn id="2" name="price"/>
     <tableColumn id="3" name="selling_price"/>
@@ -104,6 +109,7 @@
     <tableColumn id="5" name="bought_date"/>
     <tableColumn id="6" name="expiry_date"/>
     <tableColumn id="7" name="time_table"/>
+    <tableColumn id="8" name="quantity"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -394,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -410,7 +416,7 @@
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -432,8 +438,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -454,6 +463,9 @@
       </c>
       <c r="G2" t="s">
         <v>9</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
